--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316981.728768876</v>
+        <v>1402349.034802136</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673265</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>15.62903715749017</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.51149230610433</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>148.5568508170509</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.991103458219972</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>139.5352593028721</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.3147391551271</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.5295903284317</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539891</v>
+        <v>94.01296546539868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>203.2220217446467</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3348752575551</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681338</v>
+        <v>33.74703566813369</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080146</v>
+        <v>91.73208095350874</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.00361437576695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.05238024913096</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>32.90564724480839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>276.0993796354614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>6.620914204171599</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1339,16 +1341,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>111.2769414403102</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>220.6579998920452</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>186.8250998946402</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483579</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>238.8071638495617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6866654000328</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>14.31259208839388</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>95.92502041856116</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.76649072511919</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>149.4642351393302</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>57.89934023899366</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>14.31259208839298</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.0207069265287</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>175.8054861882845</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>105.0023863360924</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>89.06730531206843</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71.6703719699175</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>243.2391485592449</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3.182585533880515</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217134</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>272.8196895246577</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.562013214737267</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>114.2656173771019</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971804</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>184.6448939492121</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>85.62798561631732</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>166.8327369628537</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>107.6110020275119</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>271.8722534420396</v>
+        <v>255.4387978729992</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.42986125998354</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>318.8808837491587</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>37.48839635041174</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.33742371513254</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>3.064569824647594</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>129.6194020613846</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.67037196991602</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785984</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298172</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C2" t="n">
-        <v>686.1106626298172</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D2" t="n">
-        <v>686.1106626298172</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E2" t="n">
-        <v>686.1106626298172</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>419.7330060626392</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>153.3553494954612</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4358,22 +4360,22 @@
         <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298172</v>
+        <v>820.2300801016545</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3310045827856</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4431,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W3" t="n">
-        <v>800.6181632778232</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X3" t="n">
-        <v>800.6181632778232</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y3" t="n">
-        <v>792.5463416028535</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.5157475554171</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5795646275102</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
         <v>21.0971104001205</v>
@@ -4489,13 +4491,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>352.8622146426959</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>352.8622146426959</v>
       </c>
       <c r="W4" t="n">
-        <v>916.1537632836742</v>
+        <v>352.8622146426959</v>
       </c>
       <c r="X4" t="n">
-        <v>688.1642123856568</v>
+        <v>352.8622146426959</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.1642123856568</v>
+        <v>352.8622146426959</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.048494145351</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="C5" t="n">
-        <v>1342.048494145351</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.048494145351</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="E5" t="n">
-        <v>956.2602415471067</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="F5" t="n">
-        <v>545.2743367574991</v>
+        <v>545.274336757499</v>
       </c>
       <c r="G5" t="n">
-        <v>128.828027770548</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>128.828027770548</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780275</v>
       </c>
       <c r="K5" t="n">
-        <v>270.997549081868</v>
+        <v>270.9975490818688</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373962</v>
+        <v>509.5409587373981</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176449</v>
+        <v>806.6359018176477</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058965</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836691</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921682</v>
+        <v>1590.394365921688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961949</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961949</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961949</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961949</v>
+        <v>1551.674342961955</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961949</v>
+        <v>1346.399573522918</v>
       </c>
       <c r="X5" t="n">
-        <v>1551.674342961949</v>
+        <v>1346.399573522918</v>
       </c>
       <c r="Y5" t="n">
-        <v>1551.674342961949</v>
+        <v>956.2602415471065</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.1128031286028</v>
+        <v>391.3407901500323</v>
       </c>
       <c r="C6" t="n">
-        <v>522.6597738474758</v>
+        <v>216.8877608689052</v>
       </c>
       <c r="D6" t="n">
-        <v>373.7253641862245</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="E6" t="n">
-        <v>214.487909180769</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0742315427321</v>
+        <v>59.4758666532444</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545369</v>
+        <v>181.4029958650497</v>
       </c>
       <c r="L6" t="n">
-        <v>456.2699738772711</v>
+        <v>391.6716089877846</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340114</v>
+        <v>656.4020309445257</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245738</v>
+        <v>942.5477243562536</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.693700419935</v>
+        <v>1246.499900084654</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034403</v>
+        <v>1419.424910699123</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.078019232579</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567859</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567859</v>
+        <v>1550.180157843111</v>
       </c>
       <c r="T6" t="n">
-        <v>1497.665933903198</v>
+        <v>1457.521490213304</v>
       </c>
       <c r="U6" t="n">
-        <v>1269.549726558683</v>
+        <v>1229.405282868789</v>
       </c>
       <c r="V6" t="n">
-        <v>1269.549726558683</v>
+        <v>1229.405282868789</v>
       </c>
       <c r="W6" t="n">
-        <v>1015.312369830481</v>
+        <v>975.167926140587</v>
       </c>
       <c r="X6" t="n">
-        <v>1015.312369830481</v>
+        <v>767.3164259350542</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.5520710655271</v>
+        <v>559.5561271701004</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301.4202559246571</v>
+        <v>637.0958308998424</v>
       </c>
       <c r="C7" t="n">
-        <v>301.4202559246571</v>
+        <v>468.1596479719356</v>
       </c>
       <c r="D7" t="n">
-        <v>301.4202559246571</v>
+        <v>318.0430085595998</v>
       </c>
       <c r="E7" t="n">
-        <v>301.4202559246571</v>
+        <v>318.0430085595998</v>
       </c>
       <c r="F7" t="n">
-        <v>301.4202559246571</v>
+        <v>318.0430085595998</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>149.7239061590866</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135719</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652165</v>
+        <v>36.28512133652195</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128592</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119577</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191524</v>
+        <v>646.3363778191538</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361636</v>
+        <v>895.3159625361653</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397012</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486382</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="T7" t="n">
-        <v>1093.436447486382</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="U7" t="n">
-        <v>804.2999661151946</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="V7" t="n">
-        <v>549.6154779093077</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="W7" t="n">
-        <v>549.6154779093077</v>
+        <v>1267.52642577163</v>
       </c>
       <c r="X7" t="n">
-        <v>321.6259270112904</v>
+        <v>1039.536874873612</v>
       </c>
       <c r="Y7" t="n">
-        <v>321.6259270112904</v>
+        <v>818.7442957300822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1346.511635257854</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="C8" t="n">
-        <v>977.549118317442</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>741.1209536156525</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>741.1209536156525</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>330.135048826045</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4832,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1733.111475321975</v>
+        <v>1485.986492286525</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4886,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.5814458407721</v>
+        <v>791.0311677684842</v>
       </c>
       <c r="C10" t="n">
-        <v>462.6452629128652</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D10" t="n">
-        <v>312.5286235005294</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E10" t="n">
-        <v>312.5286235005294</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>312.5286235005294</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4987,25 +4989,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1421.461762640271</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1421.461762640271</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387894</v>
+        <v>1421.461762640271</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387894</v>
+        <v>1421.461762640271</v>
       </c>
       <c r="X10" t="n">
-        <v>631.5814458407721</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.5814458407721</v>
+        <v>972.679632598724</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2182.266054653544</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.303537713132</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D11" t="n">
-        <v>1455.037839106382</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5051,7 +5053,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.266054653544</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367745</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760995</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.384423162751</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5294,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5372,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.7237329438971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5434,19 +5436,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.154327815684</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.164776917667</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.372197774137</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V17" t="n">
-        <v>3118.421193117517</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W17" t="n">
-        <v>2765.652537847403</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X17" t="n">
-        <v>2392.186779586323</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.7237329438971</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C19" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D19" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1488.825391186745</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1234.140902980858</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>944.7237329438971</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>944.7237329438971</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.7237329438971</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796247</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C20" t="n">
-        <v>863.2862738200351</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943746</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.959038039848</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.959038039848</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.959038039848</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.959038039848</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541938</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916657</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366697</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.32286476305</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888693</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682807</v>
+        <v>2849.15471797281</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.959038039848</v>
+        <v>2849.15471797281</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.959038039848</v>
+        <v>2849.15471797281</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.959038039848</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1548.393281286113</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1179.430764345701</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>821.1650657389509</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993393</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V23" t="n">
-        <v>2788.565186649822</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W23" t="n">
-        <v>2698.598211587127</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X23" t="n">
-        <v>2325.132453326047</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y23" t="n">
-        <v>1934.993121350235</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6078,7 +6080,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2151.073568494536</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="C25" t="n">
-        <v>1982.137385566629</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="D25" t="n">
-        <v>1832.020746154294</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="E25" t="n">
-        <v>1684.1076525719</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="F25" t="n">
-        <v>1537.21770507399</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L25" t="n">
         <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>2533.219997888693</v>
       </c>
       <c r="V25" t="n">
-        <v>3070.921333403284</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W25" t="n">
-        <v>2781.504163366323</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X25" t="n">
-        <v>2553.514612468306</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y25" t="n">
-        <v>2332.722033324776</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.62132134232</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794323</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450752</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X26" t="n">
-        <v>2068.760653318132</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y26" t="n">
-        <v>1678.62132134232</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6321,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6379,7 +6381,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1501.213961756482</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>1501.213961756482</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D29" t="n">
-        <v>1142.948263149732</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E29" t="n">
-        <v>757.1600105514876</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6482,7 +6484,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6491,22 +6493,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2277.953133796416</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1887.813801820604</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6558,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610488</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V31" t="n">
-        <v>1224.739181610488</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W31" t="n">
-        <v>1224.739181610488</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X31" t="n">
-        <v>1224.739181610488</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.946602466958</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5422403324644</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>1562.149067134515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1232.150970528558</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C35" t="n">
-        <v>1232.150970528558</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D35" t="n">
-        <v>1232.150970528558</v>
+        <v>878.3737829461486</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>492.5855303479044</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>492.5855303479044</v>
       </c>
       <c r="G35" t="n">
         <v>406.0926155839475</v>
@@ -6932,55 +6934,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923657</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653543</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392463</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y35" t="n">
-        <v>1418.660964416651</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.0659616987011</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>620.1297787707942</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>470.0131393584585</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>322.1000457760654</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>175.210098278155</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,10 +7116,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
         <v>1735.608663915319</v>
@@ -7132,13 +7134,13 @@
         <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.507005672471</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X37" t="n">
-        <v>1191.507005672471</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="Y37" t="n">
-        <v>970.7144265289409</v>
+        <v>1260.131596565902</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.035106955551</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C38" t="n">
-        <v>1865.035106955551</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D38" t="n">
-        <v>1506.769408348801</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X38" t="n">
-        <v>2641.774278995485</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.634947019673</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.6375233676399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>680.6375233676399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>680.6375233676399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7336,19 +7338,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
@@ -7357,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610487</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046005</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676399</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>680.6375233676399</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.6375233676399</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1969.423143692379</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="C41" t="n">
-        <v>1600.460626751967</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218339</v>
@@ -7412,10 +7414,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7424,10 +7426,10 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052367</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>2971.470338499869</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993392</v>
+        <v>2640.407451156298</v>
       </c>
       <c r="W41" t="n">
-        <v>3119.628073993392</v>
+        <v>2287.638795886184</v>
       </c>
       <c r="X41" t="n">
-        <v>2746.162315732312</v>
+        <v>1914.173037625104</v>
       </c>
       <c r="Y41" t="n">
-        <v>2356.0229837565</v>
+        <v>1524.033705649292</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.3980557622424</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C43" t="n">
-        <v>678.4618728343355</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>528.3452334219998</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7573,46 +7575,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1859.276948376237</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915318</v>
+        <v>1667.591064203064</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915318</v>
+        <v>1445.82444877259</v>
       </c>
       <c r="U43" t="n">
-        <v>1732.513138839916</v>
+        <v>1156.721581898233</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.828650634029</v>
+        <v>902.0370936923462</v>
       </c>
       <c r="W43" t="n">
-        <v>1477.828650634029</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="X43" t="n">
-        <v>1249.839099736012</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.046520592482</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1934.181533884358</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1565.219016943946</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.953318337195</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>821.1650657389512</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052367</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>3084.386464185371</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2710.920705924291</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2320.78137394848</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>285.796379051221</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218339</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157988</v>
+        <v>25.82445471157951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574563</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>65.05511571131575</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189689008</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>54.9531451156659</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>161.2723701802166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>224.0966257588132</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>12.66894511512271</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>168.0688818921498</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>26.83633293655822</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>189.6053780512262</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8272380515737</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>261.4453474804937</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>69.12041821276463</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>307.3735515320139</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>236.682579870509</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.50229141006233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>42.77916716381031</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>145.9927856228096</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>260.1736634053446</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.35543628911073</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>7.756023399657067</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>366.5485151445885</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>209.4348714989696</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>134.0563562170537</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.2699669672</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594891</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>21.59472895491436</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>198.0889477142685</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>325.2937400371361</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12.99924321908361</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>58.41480623151632</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>110.0581166302222</v>
+        <v>126.4915721992626</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>91.00410138658563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>35.80215787152423</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>213.5067756084902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>21.5947289549148</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>283.1472683809653</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>219.6215666560284</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440476</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270145</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777612.5200897814</v>
+        <v>777612.5200897811</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777612.5200897813</v>
+        <v>777612.5200897811</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777612.5200897809</v>
+        <v>777612.5200897813</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777612.520089781</v>
+        <v>777612.5200897809</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777612.520089781</v>
+        <v>777612.5200897813</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777612.520089781</v>
+        <v>777612.5200897811</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777612.5200897813</v>
+        <v>777612.5200897811</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777612.520089781</v>
+        <v>777612.5200897811</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777612.520089781</v>
+        <v>777612.5200897809</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26323,28 +26325,28 @@
         <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="G2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="H2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="I2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="J2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="K2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="L2" t="n">
+        <v>426246.3737136509</v>
+      </c>
+      <c r="M2" t="n">
         <v>426246.3737136506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>426246.3737136507</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136507</v>
@@ -26353,7 +26355,7 @@
         <v>426246.3737136507</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739478</v>
+        <v>176672.6241739496</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819095</v>
+        <v>223886.3093819077</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640755</v>
+        <v>41076.98154640794</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946877</v>
+        <v>54988.29121946825</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341474</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>203693.4420659829</v>
+        <v>203693.4420659824</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26433,25 +26435,25 @@
         <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="J4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="L4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="N4" t="n">
-        <v>10990.29103211612</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
         <v>10990.29103211609</v>
@@ -26470,7 +26472,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.871679231</v>
+        <v>75746.87167923113</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26479,31 +26481,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139327</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481212.0432493021</v>
+        <v>-481212.043249302</v>
       </c>
       <c r="C6" t="n">
-        <v>57038.1682460155</v>
+        <v>57038.16824601348</v>
       </c>
       <c r="D6" t="n">
-        <v>55988.34050596209</v>
+        <v>55988.34050596389</v>
       </c>
       <c r="E6" t="n">
-        <v>158876.7623029507</v>
+        <v>158876.7623029506</v>
       </c>
       <c r="F6" t="n">
-        <v>340949.7421201414</v>
+        <v>340949.742120141</v>
       </c>
       <c r="G6" t="n">
-        <v>340949.7421201413</v>
+        <v>340949.7421201415</v>
       </c>
       <c r="H6" t="n">
-        <v>340949.7421201413</v>
+        <v>340949.7421201415</v>
       </c>
       <c r="I6" t="n">
         <v>340949.7421201413</v>
       </c>
       <c r="J6" t="n">
-        <v>271950.5877010273</v>
+        <v>271950.5877010272</v>
       </c>
       <c r="K6" t="n">
-        <v>299872.7605737338</v>
+        <v>299872.7605737334</v>
       </c>
       <c r="L6" t="n">
-        <v>285961.4509006724</v>
+        <v>285961.4509006732</v>
       </c>
       <c r="M6" t="n">
-        <v>293397.4763267266</v>
+        <v>293397.4763267263</v>
       </c>
       <c r="N6" t="n">
-        <v>340949.7421201414</v>
+        <v>340949.7421201413</v>
       </c>
       <c r="O6" t="n">
-        <v>340949.7421201414</v>
+        <v>340949.7421201413</v>
       </c>
       <c r="P6" t="n">
-        <v>340949.7421201415</v>
+        <v>340949.7421201413</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908044</v>
+        <v>751.4467899908059</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26747,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26790,40 +26792,40 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919649</v>
+        <v>423.3179548919665</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022924</v>
@@ -26960,16 +26962,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.391776221326</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267348</v>
+        <v>182.6181021267333</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904586</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="D4" t="n">
-        <v>217.266877208074</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904586</v>
+        <v>159.6040748904601</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080744</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904586</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208074</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27396,10 @@
         <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>298.5645954717778</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.7264463499492</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27515,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>57.21613438642655</v>
       </c>
       <c r="Y3" t="n">
-        <v>197.6915923190844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>146.7233711998054</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.2082591814639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.2042513350489</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>146.0189469727663</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.19830839231224</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253655</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>101.9177458545058</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.8283658061704</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>88.31222713960369</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>321.7773943758746</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>135.4483231374926</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.6856858406326</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>109.4717545569018</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053483</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339024</v>
+        <v>30.9377062833903</v>
       </c>
       <c r="I5" t="n">
-        <v>116.462924105007</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.394399967767</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.268742159971</v>
+        <v>384.2687421599718</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159754</v>
+        <v>476.7193540159763</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285339</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383284</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113091</v>
+        <v>508.9862526113101</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906137</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190733</v>
+        <v>326.2223097190739</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025522</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639381</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442786</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395992</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328128</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.70674814332</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499193</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876866</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449883</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345727</v>
+        <v>420.3777660345736</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587846</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077325</v>
+        <v>308.6461353077331</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970979</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963307</v>
+        <v>30.02242599633076</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807066</v>
+        <v>6.514901886807078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720625</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.8033063239096</v>
+        <v>95.80330632390978</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029914</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165511</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706793</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379544</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843471</v>
+        <v>60.92878398843483</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544871</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879966</v>
+        <v>5.789835922879978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548904</v>
+        <v>0.07391279901548918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32798,10 +32800,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33041,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33278,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781699</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34387,7 +34389,7 @@
         <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781699</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837921</v>
@@ -34463,7 +34465,7 @@
         <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002942</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108073</v>
+        <v>75.34849544108124</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149904</v>
+        <v>164.1788911149912</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459882</v>
+        <v>240.9529390459891</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012612</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417375</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896224</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353442</v>
+        <v>203.174995035345</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446238</v>
+        <v>103.9166198446244</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.11999510239893</v>
+        <v>25.86912147665362</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755603</v>
+        <v>123.1587163755609</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078124</v>
+        <v>212.3925385078131</v>
       </c>
       <c r="M6" t="n">
-        <v>267.40446662297</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512394</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143401</v>
+        <v>307.0223997256567</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934022</v>
+        <v>174.6717278934029</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469254</v>
+        <v>276.4172813469258</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.195757914430942</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.44412620723682</v>
+        <v>2.444126207237005</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768672</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325199</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.494530017183</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628434</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691707</v>
+        <v>27.3064220369173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35267,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36446,10 +36448,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222467</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013304</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004589</v>
@@ -38111,7 +38113,7 @@
         <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.635950985964</v>
       </c>
       <c r="Q45" t="n">
         <v>159.233896612727</v>
